--- a/SchedulingData/dynamic14/pso/scheduling1_5.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,26 +462,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>64.16</v>
+        <v>59.44</v>
       </c>
       <c r="E2" t="n">
-        <v>26.744</v>
+        <v>26.256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -500,21 +500,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.44</v>
       </c>
       <c r="D4" t="n">
-        <v>53.88</v>
+        <v>98.34</v>
       </c>
       <c r="E4" t="n">
-        <v>27.272</v>
+        <v>23.496</v>
       </c>
     </row>
     <row r="5">
@@ -523,17 +523,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64.16</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>131.96</v>
+        <v>55.68</v>
       </c>
       <c r="E5" t="n">
-        <v>22.584</v>
+        <v>26.612</v>
       </c>
     </row>
     <row r="6">
@@ -542,131 +542,131 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>53.88</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>106.26</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>23.164</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61.6</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.02</v>
+        <v>61.7</v>
       </c>
       <c r="E7" t="n">
-        <v>21.488</v>
+        <v>27.96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>131.96</v>
+        <v>61.6</v>
       </c>
       <c r="D8" t="n">
-        <v>201.36</v>
+        <v>118.74</v>
       </c>
       <c r="E8" t="n">
-        <v>18.744</v>
+        <v>21.936</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>118.74</v>
       </c>
       <c r="D9" t="n">
-        <v>47.1</v>
+        <v>162.4</v>
       </c>
       <c r="E9" t="n">
-        <v>27.48</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>106.26</v>
+        <v>61.7</v>
       </c>
       <c r="D10" t="n">
-        <v>163.26</v>
+        <v>130.14</v>
       </c>
       <c r="E10" t="n">
-        <v>20.084</v>
+        <v>24.216</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>148.02</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>214.64</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>17.456</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>55.68</v>
       </c>
       <c r="D12" t="n">
-        <v>49.44</v>
+        <v>110.36</v>
       </c>
       <c r="E12" t="n">
-        <v>26.256</v>
+        <v>22.764</v>
       </c>
     </row>
     <row r="13">
@@ -675,17 +675,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>214.64</v>
+        <v>98.34</v>
       </c>
       <c r="D13" t="n">
-        <v>258.3</v>
+        <v>156.72</v>
       </c>
       <c r="E13" t="n">
-        <v>14.72</v>
+        <v>20.768</v>
       </c>
     </row>
     <row r="14">
@@ -694,17 +694,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>201.36</v>
+        <v>110.36</v>
       </c>
       <c r="D14" t="n">
-        <v>294.22</v>
+        <v>180.96</v>
       </c>
       <c r="E14" t="n">
-        <v>15.048</v>
+        <v>18.804</v>
       </c>
     </row>
     <row r="15">
@@ -713,473 +713,473 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>258.3</v>
+        <v>156.72</v>
       </c>
       <c r="D15" t="n">
-        <v>327.72</v>
+        <v>225.5</v>
       </c>
       <c r="E15" t="n">
-        <v>10.408</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>163.26</v>
+        <v>225.5</v>
       </c>
       <c r="D16" t="n">
-        <v>230.16</v>
+        <v>275.2</v>
       </c>
       <c r="E16" t="n">
-        <v>16.004</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>47.1</v>
+        <v>130.14</v>
       </c>
       <c r="D17" t="n">
-        <v>108.72</v>
+        <v>191.66</v>
       </c>
       <c r="E17" t="n">
-        <v>23.448</v>
+        <v>20.184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>108.72</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>163.86</v>
+        <v>120.3</v>
       </c>
       <c r="E18" t="n">
-        <v>20.544</v>
+        <v>22.76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>327.72</v>
+        <v>162.4</v>
       </c>
       <c r="D19" t="n">
-        <v>376.22</v>
+        <v>225.12</v>
       </c>
       <c r="E19" t="n">
-        <v>6.688</v>
+        <v>16.548</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>294.22</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>357.02</v>
+        <v>123.04</v>
       </c>
       <c r="E20" t="n">
-        <v>12.848</v>
+        <v>22.976</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>230.16</v>
+        <v>225.12</v>
       </c>
       <c r="D21" t="n">
-        <v>278.9</v>
+        <v>294.32</v>
       </c>
       <c r="E21" t="n">
-        <v>12.26</v>
+        <v>12.228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>357.02</v>
+        <v>120.3</v>
       </c>
       <c r="D22" t="n">
-        <v>425.16</v>
+        <v>200.96</v>
       </c>
       <c r="E22" t="n">
-        <v>9.624000000000001</v>
+        <v>19.284</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>425.16</v>
+        <v>123.04</v>
       </c>
       <c r="D23" t="n">
-        <v>497.56</v>
+        <v>177.56</v>
       </c>
       <c r="E23" t="n">
-        <v>6.504</v>
+        <v>18.664</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>200.96</v>
       </c>
       <c r="D24" t="n">
-        <v>60.5</v>
+        <v>253.16</v>
       </c>
       <c r="E24" t="n">
-        <v>25.14</v>
+        <v>15.204</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>60.5</v>
+        <v>177.56</v>
       </c>
       <c r="D25" t="n">
-        <v>138.74</v>
+        <v>232.46</v>
       </c>
       <c r="E25" t="n">
-        <v>21.916</v>
+        <v>15.284</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>278.9</v>
+        <v>275.2</v>
       </c>
       <c r="D26" t="n">
-        <v>331.5</v>
+        <v>348.98</v>
       </c>
       <c r="E26" t="n">
-        <v>8.619999999999999</v>
+        <v>11.392</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>331.5</v>
+        <v>232.46</v>
       </c>
       <c r="D27" t="n">
-        <v>411</v>
+        <v>263.82</v>
       </c>
       <c r="E27" t="n">
-        <v>4.3</v>
+        <v>12.788</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>163.86</v>
+        <v>180.96</v>
       </c>
       <c r="D28" t="n">
-        <v>205.46</v>
+        <v>237.42</v>
       </c>
       <c r="E28" t="n">
-        <v>18.504</v>
+        <v>15.788</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>205.46</v>
+        <v>191.66</v>
       </c>
       <c r="D29" t="n">
-        <v>280.92</v>
+        <v>266.26</v>
       </c>
       <c r="E29" t="n">
-        <v>15.028</v>
+        <v>15.324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>49.44</v>
+        <v>253.16</v>
       </c>
       <c r="D30" t="n">
-        <v>99.52</v>
+        <v>298.32</v>
       </c>
       <c r="E30" t="n">
-        <v>22.868</v>
+        <v>12.828</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>497.56</v>
+        <v>294.32</v>
       </c>
       <c r="D31" t="n">
-        <v>544.76</v>
+        <v>380.02</v>
       </c>
       <c r="E31" t="n">
-        <v>2.424</v>
+        <v>7.728</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>138.74</v>
+        <v>237.42</v>
       </c>
       <c r="D32" t="n">
-        <v>193.4</v>
+        <v>281.06</v>
       </c>
       <c r="E32" t="n">
-        <v>19.54</v>
+        <v>12.564</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>280.92</v>
+        <v>266.26</v>
       </c>
       <c r="D33" t="n">
-        <v>356.64</v>
+        <v>307.86</v>
       </c>
       <c r="E33" t="n">
-        <v>12.036</v>
+        <v>12.804</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>356.64</v>
+        <v>307.86</v>
       </c>
       <c r="D34" t="n">
-        <v>426.64</v>
+        <v>350.02</v>
       </c>
       <c r="E34" t="n">
-        <v>8.616</v>
+        <v>10.208</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>376.22</v>
+        <v>281.06</v>
       </c>
       <c r="D35" t="n">
-        <v>424.04</v>
+        <v>358.16</v>
       </c>
       <c r="E35" t="n">
-        <v>4.036</v>
+        <v>9.444000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>193.4</v>
+        <v>358.16</v>
       </c>
       <c r="D36" t="n">
-        <v>276.78</v>
+        <v>416.32</v>
       </c>
       <c r="E36" t="n">
-        <v>16.292</v>
+        <v>6.228</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>276.78</v>
+        <v>298.32</v>
       </c>
       <c r="D37" t="n">
-        <v>328.94</v>
+        <v>366.02</v>
       </c>
       <c r="E37" t="n">
-        <v>13.696</v>
+        <v>9.188000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>426.64</v>
+        <v>416.32</v>
       </c>
       <c r="D38" t="n">
-        <v>465.54</v>
+        <v>473.32</v>
       </c>
       <c r="E38" t="n">
-        <v>5.856</v>
+        <v>2.148</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>465.54</v>
+        <v>350.02</v>
       </c>
       <c r="D39" t="n">
-        <v>521.7</v>
+        <v>407.5</v>
       </c>
       <c r="E39" t="n">
-        <v>3.36</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="40">
@@ -1188,93 +1188,93 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>411</v>
+        <v>366.02</v>
       </c>
       <c r="D40" t="n">
-        <v>479.4</v>
+        <v>416.54</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>6.276</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>479.4</v>
+        <v>263.82</v>
       </c>
       <c r="D41" t="n">
-        <v>547.9</v>
+        <v>346.98</v>
       </c>
       <c r="E41" t="n">
-        <v>25.32</v>
+        <v>9.092000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>328.94</v>
+        <v>348.98</v>
       </c>
       <c r="D42" t="n">
-        <v>373.02</v>
+        <v>411.98</v>
       </c>
       <c r="E42" t="n">
-        <v>11.408</v>
+        <v>6.712</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>99.52</v>
+        <v>346.98</v>
       </c>
       <c r="D43" t="n">
-        <v>143.28</v>
+        <v>412.38</v>
       </c>
       <c r="E43" t="n">
-        <v>20.132</v>
+        <v>6.132</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>373.02</v>
+        <v>411.98</v>
       </c>
       <c r="D44" t="n">
-        <v>408.54</v>
+        <v>470.38</v>
       </c>
       <c r="E44" t="n">
-        <v>8.496</v>
+        <v>2.992</v>
       </c>
     </row>
     <row r="45">
@@ -1283,74 +1283,74 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>143.28</v>
+        <v>380.02</v>
       </c>
       <c r="D45" t="n">
-        <v>212.96</v>
+        <v>408.42</v>
       </c>
       <c r="E45" t="n">
-        <v>16.284</v>
+        <v>5.528</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>408.54</v>
+        <v>408.42</v>
       </c>
       <c r="D46" t="n">
-        <v>469.7</v>
+        <v>482.08</v>
       </c>
       <c r="E46" t="n">
-        <v>5.48</v>
+        <v>2.272</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>424.04</v>
+        <v>416.54</v>
       </c>
       <c r="D47" t="n">
-        <v>477.6</v>
+        <v>469.9</v>
       </c>
       <c r="E47" t="n">
-        <v>0.82</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>477.6</v>
+        <v>412.38</v>
       </c>
       <c r="D48" t="n">
-        <v>562.5599999999999</v>
+        <v>513.6</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="49">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>212.96</v>
+        <v>482.08</v>
       </c>
       <c r="D49" t="n">
-        <v>298.66</v>
+        <v>574.14</v>
       </c>
       <c r="E49" t="n">
-        <v>11.784</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
@@ -1378,36 +1378,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>298.66</v>
+        <v>574.14</v>
       </c>
       <c r="D50" t="n">
-        <v>334.66</v>
+        <v>638.1799999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>8.824</v>
+        <v>26.776</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>334.66</v>
+        <v>469.9</v>
       </c>
       <c r="D51" t="n">
-        <v>411.5</v>
+        <v>540</v>
       </c>
       <c r="E51" t="n">
-        <v>5.24</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="52">
@@ -1416,36 +1416,55 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>547.9</v>
+        <v>540</v>
       </c>
       <c r="D52" t="n">
-        <v>603.8</v>
+        <v>606.76</v>
       </c>
       <c r="E52" t="n">
-        <v>21.36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>469.7</v>
+        <v>473.32</v>
       </c>
       <c r="D53" t="n">
-        <v>544.7</v>
+        <v>545.8200000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>2.1</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>pond43</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>545.8200000000001</v>
+      </c>
+      <c r="D54" t="n">
+        <v>606.36</v>
+      </c>
+      <c r="E54" t="n">
+        <v>27.096</v>
       </c>
     </row>
   </sheetData>
